--- a/test-output/excelfiles/student.xlsx
+++ b/test-output/excelfiles/student.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>1</t>
   </si>
@@ -29,13 +29,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>vija</t>
+    <t>vijaya</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Bor</t>
   </si>
 </sst>
 </file>
@@ -115,7 +112,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
